--- a/public/ips/Tes.xlsx
+++ b/public/ips/Tes.xlsx
@@ -38,19 +38,19 @@
     <t>Harga Pekerjaan</t>
   </si>
   <si>
-    <t>Pekerjaan 1</t>
+    <t>dsfdsfds</t>
   </si>
   <si>
     <t>cm</t>
   </si>
   <si>
-    <t>Total : 13592816</t>
-  </si>
-  <si>
-    <t>Pekerjaan 2</t>
-  </si>
-  <si>
-    <t>Total : 746484665</t>
+    <t>Total : 12848904</t>
+  </si>
+  <si>
+    <t>sfdsfdsf</t>
+  </si>
+  <si>
+    <t>Total : 0</t>
   </si>
 </sst>
 </file>
@@ -461,10 +461,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A7" sqref="A7:F16"/>
+      <selection activeCell="A7" sqref="A7:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -561,35 +561,25 @@
         <v>8</v>
       </c>
       <c r="E10" s="1">
-        <v>234234.0</v>
+        <v>234324.0</v>
       </c>
       <c r="F10" s="8">
-        <v>5387382.0</v>
+        <v>5389452.0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
-        <v>32434.0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>745982.0</v>
-      </c>
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -598,64 +588,14 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1">
-        <v>23423.0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>538729.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>32432432.0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>745945936.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -671,9 +611,9 @@
     <mergeCell ref="E7:E7"/>
     <mergeCell ref="F7:F7"/>
     <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
